--- a/Team-Data/2011-12/4-10-2011-12.xlsx
+++ b/Team-Data/2011-12/4-10-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
         <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.579</v>
+        <v>0.571</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -878,22 +945,22 @@
         <v>14.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="O3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P3" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q3" t="n">
         <v>0.781</v>
       </c>
       <c r="R3" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T3" t="n">
         <v>38.6</v>
@@ -905,7 +972,7 @@
         <v>14.9</v>
       </c>
       <c r="W3" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X3" t="n">
         <v>5.5</v>
@@ -920,28 +987,28 @@
         <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.90000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,10 +1023,10 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>19</v>
@@ -998,7 +1065,7 @@
         <v>24</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>0.125</v>
+        <v>0.127</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J4" t="n">
         <v>80.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="L4" t="n">
         <v>4.1</v>
@@ -1066,19 +1133,19 @@
         <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R4" t="n">
         <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T4" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U4" t="n">
         <v>20.4</v>
@@ -1096,10 +1163,10 @@
         <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB4" t="n">
         <v>88.09999999999999</v>
@@ -1108,7 +1175,7 @@
         <v>-13.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1144,13 +1211,13 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>18</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1159,22 +1226,22 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY4" t="n">
         <v>24</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="H5" t="n">
         <v>48.2</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J5" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.453</v>
@@ -1242,16 +1309,16 @@
         <v>16.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R5" t="n">
         <v>14</v>
@@ -1263,16 +1330,16 @@
         <v>46.3</v>
       </c>
       <c r="U5" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y5" t="n">
         <v>5.1</v>
@@ -1287,10 +1354,10 @@
         <v>96.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1308,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>11</v>
@@ -1323,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
         <v>36</v>
       </c>
       <c r="G6" t="n">
-        <v>0.345</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
         <v>81.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
@@ -1424,16 +1491,16 @@
         <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R6" t="n">
         <v>13</v>
@@ -1442,10 +1509,10 @@
         <v>29.7</v>
       </c>
       <c r="T6" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
         <v>15.3</v>
@@ -1460,34 +1527,34 @@
         <v>6.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6</v>
+        <v>-6.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
         <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
@@ -1508,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,16 +1584,16 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.552</v>
+        <v>0.544</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J7" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K7" t="n">
         <v>0.441</v>
@@ -1603,40 +1670,40 @@
         <v>7.4</v>
       </c>
       <c r="M7" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O7" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P7" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S7" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U7" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V7" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
         <v>8.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
@@ -1645,19 +1712,19 @@
         <v>18.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1666,13 +1733,13 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1702,19 +1769,19 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1729,7 +1796,7 @@
         <v>20</v>
       </c>
       <c r="BC7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,10 +2097,10 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>25</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2415,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2442,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
         <v>20</v>
@@ -2457,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,10 +2643,10 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>22</v>
@@ -2618,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW12" t="n">
         <v>14</v>
@@ -2639,7 +2706,7 @@
         <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2803,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="AW13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>1.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2982,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -2997,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="BA14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>10</v>
@@ -3119,7 +3186,7 @@
         <v>7</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>13</v>
@@ -3170,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.714</v>
+        <v>0.727</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.474</v>
@@ -3244,37 +3311,37 @@
         <v>15.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O16" t="n">
         <v>19.5</v>
       </c>
       <c r="P16" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q16" t="n">
         <v>0.774</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="T16" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
         <v>4.4</v>
@@ -3286,22 +3353,22 @@
         <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>5</v>
@@ -3322,19 +3389,19 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS16" t="n">
         <v>10</v>
@@ -3346,7 +3413,7 @@
         <v>18</v>
       </c>
       <c r="AV16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3495,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>14</v>
@@ -3531,10 +3598,10 @@
         <v>9</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>9</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3668,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
@@ -3692,10 +3759,10 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="n">
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.356</v>
+        <v>0.362</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,19 +3845,19 @@
         <v>34.3</v>
       </c>
       <c r="J19" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L19" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
         <v>17.1</v>
@@ -3799,22 +3866,22 @@
         <v>22.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S19" t="n">
         <v>28.2</v>
       </c>
       <c r="T19" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U19" t="n">
         <v>20.1</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>7.6</v>
@@ -3823,7 +3890,7 @@
         <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z19" t="n">
         <v>19.2</v>
@@ -3832,10 +3899,10 @@
         <v>19.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.4</v>
+        <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -3868,16 +3935,16 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>8</v>
@@ -3892,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>16</v>
@@ -3910,7 +3977,7 @@
         <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4065,7 +4132,7 @@
         <v>17</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4074,19 +4141,19 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW20" t="n">
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.509</v>
+        <v>0.518</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.437</v>
@@ -4157,64 +4224,64 @@
         <v>0.319</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R21" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S21" t="n">
         <v>30.8</v>
       </c>
       <c r="T21" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V21" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W21" t="n">
         <v>9.5</v>
       </c>
       <c r="X21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z21" t="n">
         <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4250,7 +4317,7 @@
         <v>16</v>
       </c>
       <c r="AT21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU21" t="n">
         <v>24</v>
@@ -4265,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4411,7 +4478,7 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN22" t="n">
         <v>11</v>
@@ -4429,7 +4496,7 @@
         <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -4488,49 +4555,49 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
         <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.586</v>
+        <v>0.596</v>
       </c>
       <c r="H23" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I23" t="n">
         <v>34.3</v>
       </c>
       <c r="J23" t="n">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O23" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P23" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q23" t="n">
         <v>0.654</v>
       </c>
       <c r="R23" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
         <v>31.6</v>
@@ -4539,7 +4606,7 @@
         <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>15.2</v>
@@ -4557,28 +4624,28 @@
         <v>17.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4614,7 +4681,7 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4635,7 +4702,7 @@
         <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
         <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.526</v>
+        <v>0.518</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,7 +4755,7 @@
         <v>37.3</v>
       </c>
       <c r="J24" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K24" t="n">
         <v>0.446</v>
@@ -4703,22 +4770,22 @@
         <v>0.364</v>
       </c>
       <c r="O24" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="P24" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.743</v>
+        <v>0.739</v>
       </c>
       <c r="R24" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T24" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
         <v>21.7</v>
@@ -4727,37 +4794,37 @@
         <v>11.1</v>
       </c>
       <c r="W24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
         <v>16.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
@@ -4772,7 +4839,7 @@
         <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
@@ -4787,13 +4854,13 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
         <v>9</v>
@@ -4808,7 +4875,7 @@
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4984,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>0.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5148,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5172,19 +5239,19 @@
         <v>12</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>8</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J27" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P27" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.738</v>
+        <v>0.741</v>
       </c>
       <c r="R27" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="S27" t="n">
         <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U27" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V27" t="n">
         <v>14.9</v>
@@ -5279,34 +5346,34 @@
         <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
         <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB27" t="n">
         <v>98.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5321,7 +5388,7 @@
         <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>28</v>
@@ -5333,13 +5400,13 @@
         <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT27" t="n">
         <v>5</v>
@@ -5348,13 +5415,13 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
@@ -5369,7 +5436,7 @@
         <v>9</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>5.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5509,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>-3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
       </c>
       <c r="AF29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG29" t="n">
         <v>25</v>
       </c>
-      <c r="AG29" t="n">
-        <v>26</v>
-      </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5679,7 +5746,7 @@
         <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5700,7 +5767,7 @@
         <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>13</v>
@@ -5721,7 +5788,7 @@
         <v>17</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
         <v>44</v>
       </c>
       <c r="G31" t="n">
-        <v>0.241</v>
+        <v>0.228</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,34 +6029,34 @@
         <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L31" t="n">
         <v>5.3</v>
       </c>
       <c r="M31" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.324</v>
+        <v>0.326</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T31" t="n">
         <v>41.5</v>
@@ -6004,13 +6071,13 @@
         <v>7.7</v>
       </c>
       <c r="X31" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y31" t="n">
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
         <v>18.8</v>
@@ -6019,10 +6086,10 @@
         <v>93.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,19 +6101,19 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM31" t="n">
         <v>21</v>
@@ -6055,10 +6122,10 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6067,7 +6134,7 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6076,7 +6143,7 @@
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-10-2011-12</t>
+          <t>2012-04-10</t>
         </is>
       </c>
     </row>
